--- a/source/Pong/pongHighscoreDatabase.xlsx
+++ b/source/Pong/pongHighscoreDatabase.xlsx
@@ -24,9 +24,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="3">
   <si>
     <t>Pong!</t>
+  </si>
+  <si>
+    <t>Player 1 Name</t>
+  </si>
+  <si>
+    <t>%playerw hasd  34 df</t>
   </si>
 </sst>
 </file>
@@ -378,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -490,6 +496,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
